--- a/output/AFFAIR SYSTEM TELECOMUNICAÇÕES LTDA 1001394-45.2025.8.26.0100.pdf_analysis.xlsx
+++ b/output/AFFAIR SYSTEM TELECOMUNICAÇÕES LTDA 1001394-45.2025.8.26.0100.pdf_analysis.xlsx
@@ -436,17 +436,17 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>2021</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2807.396</v>
+        <v>1462824</v>
       </c>
       <c r="C2" t="n">
-        <v>3891.795</v>
+        <v>2807451</v>
       </c>
       <c r="D2" t="n">
-        <v>2807.451</v>
+        <v>3891795</v>
       </c>
       <c r="E2" t="n">
         <v>2000000</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680.025</v>
+        <v>1208674</v>
       </c>
       <c r="C3" t="n">
+        <v>680025</v>
+      </c>
+      <c r="D3" t="n">
         <v>6346314</v>
-      </c>
-      <c r="D3" t="n">
-        <v>680025</v>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
@@ -498,13 +498,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>858.471</v>
+        <v>1889369</v>
       </c>
       <c r="C4" t="n">
+        <v>858471</v>
+      </c>
+      <c r="D4" t="n">
         <v>929046</v>
-      </c>
-      <c r="D4" t="n">
-        <v>858471</v>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
@@ -515,13 +515,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>139.507</v>
+        <v>456642</v>
       </c>
       <c r="C5" t="n">
+        <v>139507</v>
+      </c>
+      <c r="D5" t="n">
         <v>66780</v>
-      </c>
-      <c r="D5" t="n">
-        <v>139507</v>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
@@ -532,13 +532,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>639.869</v>
+        <v>436567</v>
       </c>
       <c r="C6" t="n">
+        <v>639869</v>
+      </c>
+      <c r="D6" t="n">
         <v>1113446</v>
-      </c>
-      <c r="D6" t="n">
-        <v>639869</v>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
@@ -549,13 +549,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>346.31</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>346.31</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
@@ -566,13 +566,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>989.405</v>
+        <v>3299015</v>
       </c>
       <c r="C8" t="n">
+        <v>989350</v>
+      </c>
+      <c r="D8" t="n">
         <v>241675</v>
-      </c>
-      <c r="D8" t="n">
-        <v>989350</v>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
@@ -583,13 +583,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6114.674</v>
+        <v>8753092</v>
       </c>
       <c r="C9" t="n">
+        <v>6114674</v>
+      </c>
+      <c r="D9" t="n">
         <v>12589056</v>
-      </c>
-      <c r="D9" t="n">
-        <v>6114674</v>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.794</v>
+        <v>189096</v>
       </c>
       <c r="C10" t="n">
         <v>107794</v>
@@ -668,13 +668,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4450728</v>
+        <v>5128909</v>
       </c>
       <c r="C14" t="n">
+        <v>4450727</v>
+      </c>
+      <c r="D14" t="n">
         <v>5308316</v>
-      </c>
-      <c r="D14" t="n">
-        <v>4450728</v>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
@@ -702,17 +702,15 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>3142615</v>
+      </c>
+      <c r="C16" t="n">
         <v>2553882</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>4464599</v>
       </c>
-      <c r="D16" t="n">
-        <v>2553882</v>
-      </c>
-      <c r="E16" t="n">
-        <v>142611.21</v>
-      </c>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -721,13 +719,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50234</v>
+        <v>58380</v>
       </c>
       <c r="C17" t="n">
+        <v>50233</v>
+      </c>
+      <c r="D17" t="n">
         <v>78504</v>
-      </c>
-      <c r="D17" t="n">
-        <v>50234</v>
       </c>
       <c r="E17" t="n">
         <v>185616.7</v>
@@ -740,13 +738,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1187549</v>
+        <v>-3562.93</v>
       </c>
       <c r="C18" t="n">
-        <v>-1187549</v>
+        <v>-8863.85</v>
       </c>
       <c r="D18" t="n">
-        <v>-1187549</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>-157923.22</v>
@@ -810,13 +808,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10565402</v>
+        <v>13882001</v>
       </c>
       <c r="C22" t="n">
+        <v>10565401</v>
+      </c>
+      <c r="D22" t="n">
         <v>17897373</v>
-      </c>
-      <c r="D22" t="n">
-        <v>10565402</v>
       </c>
       <c r="E22" t="n">
         <v>12150292.04</v>
@@ -829,13 +827,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3830162</v>
+        <v>1273011</v>
       </c>
       <c r="C23" t="n">
-        <v>9088526</v>
+        <v>1273011</v>
       </c>
       <c r="D23" t="n">
-        <v>3830162</v>
+        <v>1273011</v>
       </c>
       <c r="E23" t="inlineStr"/>
     </row>
@@ -846,13 +844,13 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>1761670</v>
+      </c>
+      <c r="C24" t="n">
         <v>450484</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>143314</v>
-      </c>
-      <c r="D24" t="n">
-        <v>450484</v>
       </c>
       <c r="E24" t="inlineStr"/>
     </row>
@@ -880,13 +878,13 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>2870211</v>
+      </c>
+      <c r="C26" t="n">
         <v>1024326</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>1065048</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1024326</v>
       </c>
       <c r="E26" t="inlineStr"/>
     </row>
@@ -897,13 +895,13 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>923485</v>
+      </c>
+      <c r="C27" t="n">
         <v>179967</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>690303</v>
-      </c>
-      <c r="D27" t="n">
-        <v>179967</v>
       </c>
       <c r="E27" t="inlineStr"/>
     </row>
@@ -931,13 +929,13 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>1182956</v>
+      </c>
+      <c r="C29" t="n">
         <v>167068</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>2646040</v>
-      </c>
-      <c r="D29" t="n">
-        <v>167068</v>
       </c>
       <c r="E29" t="inlineStr"/>
     </row>
@@ -965,13 +963,13 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>13723207</v>
+      </c>
+      <c r="C31" t="n">
         <v>3830162</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>9088526</v>
-      </c>
-      <c r="D31" t="n">
-        <v>3830162</v>
       </c>
       <c r="E31" t="inlineStr"/>
     </row>
@@ -982,13 +980,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4735240</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>2733906</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>4735240</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr"/>
     </row>
@@ -999,13 +997,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>299825</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>319262</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>299825</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr"/>
     </row>
@@ -1084,13 +1082,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4735240</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>2733906</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>4735240</v>
+        <v>0</v>
       </c>
       <c r="E38" t="inlineStr"/>
     </row>
@@ -1118,13 +1116,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6074941</v>
+        <v>7334141</v>
       </c>
       <c r="C40" t="n">
-        <v>6074941</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>6074941</v>
+        <v>4074941</v>
       </c>
       <c r="E40" t="inlineStr"/>
     </row>
@@ -1169,13 +1167,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-2161508</v>
+        <v>-10863.85</v>
       </c>
       <c r="C43" t="n">
-        <v>2307502</v>
+        <v>6074941</v>
       </c>
       <c r="D43" t="n">
-        <v>-2161508</v>
+        <v>6074941</v>
       </c>
       <c r="E43" t="n">
         <v>-10863849.71</v>
@@ -1205,13 +1203,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2000000</v>
+        <v>5334141</v>
       </c>
       <c r="C45" t="n">
         <v>6074941</v>
       </c>
       <c r="D45" t="n">
-        <v>2000000</v>
+        <v>6074941</v>
       </c>
       <c r="E45" t="inlineStr"/>
     </row>
@@ -1222,13 +1220,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10565402</v>
+        <v>13882001</v>
       </c>
       <c r="C46" t="n">
+        <v>10565401</v>
+      </c>
+      <c r="D46" t="n">
         <v>17897373</v>
-      </c>
-      <c r="D46" t="n">
-        <v>10565402</v>
       </c>
       <c r="E46" t="n">
         <v>12150292.04</v>
@@ -1241,13 +1239,13 @@
         </is>
       </c>
       <c r="B47" t="n">
+        <v>22264235</v>
+      </c>
+      <c r="C47" t="n">
         <v>12642327</v>
       </c>
-      <c r="C47" t="n">
-        <v>29663906</v>
-      </c>
       <c r="D47" t="n">
-        <v>2264235</v>
+        <v>29863906</v>
       </c>
       <c r="E47" t="n">
         <v>8332154.83</v>
@@ -1260,13 +1258,13 @@
         </is>
       </c>
       <c r="B48" t="n">
+        <v>-3386243</v>
+      </c>
+      <c r="C48" t="n">
         <v>-1698389</v>
       </c>
-      <c r="C48" t="n">
+      <c r="D48" t="n">
         <v>-4484025</v>
-      </c>
-      <c r="D48" t="n">
-        <v>-3386243</v>
       </c>
       <c r="E48" t="n">
         <v>-1251893.84</v>
@@ -1296,13 +1294,13 @@
         </is>
       </c>
       <c r="B50" t="n">
+        <v>18877992</v>
+      </c>
+      <c r="C50" t="n">
         <v>10943938</v>
       </c>
-      <c r="C50" t="n">
+      <c r="D50" t="n">
         <v>25379881</v>
-      </c>
-      <c r="D50" t="n">
-        <v>18877992</v>
       </c>
       <c r="E50" t="n">
         <v>7080260.99</v>
@@ -1315,13 +1313,13 @@
         </is>
       </c>
       <c r="B51" t="n">
+        <v>-15290853</v>
+      </c>
+      <c r="C51" t="n">
         <v>-8790821</v>
       </c>
-      <c r="C51" t="n">
+      <c r="D51" t="n">
         <v>-13785230</v>
-      </c>
-      <c r="D51" t="n">
-        <v>-15290853</v>
       </c>
       <c r="E51" t="n">
         <v>-7171952.76</v>
@@ -1334,13 +1332,13 @@
         </is>
       </c>
       <c r="B52" t="n">
+        <v>3587139</v>
+      </c>
+      <c r="C52" t="n">
         <v>2153117</v>
       </c>
-      <c r="C52" t="n">
+      <c r="D52" t="n">
         <v>11594650</v>
-      </c>
-      <c r="D52" t="n">
-        <v>3587139</v>
       </c>
       <c r="E52" t="n">
         <v>-91691.77</v>
@@ -1353,13 +1351,13 @@
         </is>
       </c>
       <c r="B53" t="n">
+        <v>-1302452</v>
+      </c>
+      <c r="C53" t="n">
         <v>-812223</v>
       </c>
-      <c r="C53" t="n">
+      <c r="D53" t="n">
         <v>-307932</v>
-      </c>
-      <c r="D53" t="n">
-        <v>-1302452</v>
       </c>
       <c r="E53" t="inlineStr"/>
     </row>
@@ -1370,13 +1368,13 @@
         </is>
       </c>
       <c r="B54" t="n">
+        <v>-6503586</v>
+      </c>
+      <c r="C54" t="n">
         <v>-5769094</v>
       </c>
-      <c r="C54" t="n">
+      <c r="D54" t="n">
         <v>-5256476</v>
-      </c>
-      <c r="D54" t="n">
-        <v>-6503586</v>
       </c>
       <c r="E54" t="n">
         <v>-2599310.74</v>
@@ -1408,13 +1406,13 @@
         </is>
       </c>
       <c r="B56" t="n">
+        <v>-276525</v>
+      </c>
+      <c r="C56" t="n">
         <v>-169376</v>
       </c>
-      <c r="C56" t="n">
+      <c r="D56" t="n">
         <v>-150106</v>
-      </c>
-      <c r="D56" t="n">
-        <v>-276525</v>
       </c>
       <c r="E56" t="n">
         <v>-52463.56</v>
@@ -1427,13 +1425,13 @@
         </is>
       </c>
       <c r="B57" t="n">
+        <v>-149446</v>
+      </c>
+      <c r="C57" t="n">
         <v>1982380</v>
       </c>
-      <c r="C57" t="n">
+      <c r="D57" t="n">
         <v>-812581</v>
-      </c>
-      <c r="D57" t="n">
-        <v>-149446</v>
       </c>
       <c r="E57" t="n">
         <v>-3539017.08</v>
@@ -1446,13 +1444,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>577926</v>
+        <v>657.6799999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>780404</v>
+        <v>577.9299999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>657.6799999999999</v>
+        <v>0</v>
       </c>
       <c r="E58" t="inlineStr"/>
     </row>
@@ -1463,13 +1461,13 @@
         </is>
       </c>
       <c r="B59" t="n">
+        <v>-3195960</v>
+      </c>
+      <c r="C59" t="n">
         <v>-1159075</v>
       </c>
-      <c r="C59" t="n">
+      <c r="D59" t="n">
         <v>-1547445</v>
-      </c>
-      <c r="D59" t="n">
-        <v>-3195960</v>
       </c>
       <c r="E59" t="n">
         <v>-708888.71</v>
@@ -1482,13 +1480,13 @@
         </is>
       </c>
       <c r="B60" t="n">
+        <v>506688</v>
+      </c>
+      <c r="C60" t="n">
         <v>531365</v>
       </c>
-      <c r="C60" t="n">
+      <c r="D60" t="n">
         <v>483802</v>
-      </c>
-      <c r="D60" t="n">
-        <v>506688</v>
       </c>
       <c r="E60" t="n">
         <v>33603.22</v>
@@ -1501,13 +1499,13 @@
         </is>
       </c>
       <c r="B61" t="n">
+        <v>-7334141</v>
+      </c>
+      <c r="C61" t="n">
         <v>-3242907</v>
       </c>
-      <c r="C61" t="n">
+      <c r="D61" t="n">
         <v>4003912</v>
-      </c>
-      <c r="D61" t="n">
-        <v>-7334141</v>
       </c>
       <c r="E61" t="inlineStr"/>
     </row>
@@ -1535,13 +1533,13 @@
         </is>
       </c>
       <c r="B63" t="n">
+        <v>-7334141</v>
+      </c>
+      <c r="C63" t="n">
         <v>-3242907</v>
       </c>
-      <c r="C63" t="n">
+      <c r="D63" t="n">
         <v>4003912</v>
-      </c>
-      <c r="D63" t="n">
-        <v>-7334141</v>
       </c>
       <c r="E63" t="inlineStr"/>
     </row>
@@ -1552,13 +1550,13 @@
         </is>
       </c>
       <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1081399</v>
+      </c>
+      <c r="D64" t="n">
         <v>-570232</v>
-      </c>
-      <c r="C64" t="n">
-        <v>-570232</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
       </c>
       <c r="E64" t="inlineStr"/>
     </row>
@@ -1569,13 +1567,13 @@
         </is>
       </c>
       <c r="B65" t="n">
+        <v>-7334141</v>
+      </c>
+      <c r="C65" t="n">
         <v>-2161508</v>
       </c>
-      <c r="C65" t="n">
+      <c r="D65" t="n">
         <v>2307502</v>
-      </c>
-      <c r="D65" t="n">
-        <v>-7334141</v>
       </c>
       <c r="E65" t="n">
         <v>-3529708.85</v>
